--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>457896.9318625613</v>
+        <v>399383.5293367548</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>13449538.79260189</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347745</v>
+        <v>8519784.59520673</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8612872.176815497</v>
+        <v>8692638.46705446</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>129.3420634549347</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>165.1725371760949</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>139.9461157276012</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>15.40229248514519</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y3" t="n">
-        <v>146.8461210887088</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="4">
@@ -855,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474336</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>13.47835778729062</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
     </row>
     <row r="5">
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V5" t="n">
-        <v>129.3420634549345</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W5" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X5" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>146.8461210887086</v>
+        <v>165.1725371760945</v>
       </c>
     </row>
     <row r="6">
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>108.344059721986</v>
+        <v>57.85866725808099</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827334</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.8461210887086</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474393</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>13.47835778729034</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.396723986041374</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663199</v>
+        <v>116.8405921356975</v>
       </c>
       <c r="H8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
         <v>158.7758131900531</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>92.73964154763127</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>129.1249002056626</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>38.11163636040592</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>92.47445699814261</v>
+        <v>125.799839425217</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>72.5074645095044</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>197.1871596835339</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.76470074482967</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>146.842886239454</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>58.2822537753041</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>126.7498226612781</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>208.7870980274448</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>61.05801487789198</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>17.48565126025495</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>99.59933623926747</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>190.2651610286896</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.4608434426853</v>
+        <v>117.7126336312588</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>75.45713216103701</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>61.29257748217055</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0495374903435</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>386.0531312245761</v>
+        <v>310.0360877169932</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>142.427448404573</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>58.28185552386346</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>44.78573950458642</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>64.77203581859771</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>103.417431090248</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>136.596523952444</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>102.8695072550956</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>358.0072011553083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>54.4580304704437</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>99.24581285537863</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>2.806897296251102</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>345.3374211735818</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.34481037435889</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>2.118847112890157</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>324.482353263935</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>199.7325946875374</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>247.861285873591</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.46084344268519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>316.8677092753587</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>229.7965692041362</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.390892853071527</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>121.4856996582647</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>315.8864050262705</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>330.6677928008973</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>152.3650712933278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>12.49517055697445</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.3962386314752</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="C2" t="n">
-        <v>11.74768968709671</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="D2" t="n">
-        <v>11.74768968709671</v>
+        <v>583.2614020227606</v>
       </c>
       <c r="E2" t="n">
-        <v>11.74768968709671</v>
+        <v>393.8416170062757</v>
       </c>
       <c r="F2" t="n">
-        <v>11.74768968709671</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="G2" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709671</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>53.1018177918304</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458399</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066261</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588566</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735312</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548353</v>
+        <v>734.4611726020274</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="R2" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="S2" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="U2" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="V2" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="W2" t="n">
-        <v>439.0550691137153</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="X2" t="n">
-        <v>439.0550691137153</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="Y2" t="n">
-        <v>290.7256538725952</v>
+        <v>750.1023486652807</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>290.7256538725952</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C3" t="n">
-        <v>290.7256538725952</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>290.7256538725952</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>290.7256538725952</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>149.3659410164323</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>12.97238670821035</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>112.566394683609</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>248.1447726172894</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>393.5224324951112</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>511.79410577561</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>587.3844843548353</v>
+        <v>739.5989987017072</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="R3" t="n">
-        <v>587.3844843548353</v>
+        <v>734.5444774681644</v>
       </c>
       <c r="S3" t="n">
-        <v>587.3844843548353</v>
+        <v>583.2614020227606</v>
       </c>
       <c r="T3" t="n">
-        <v>587.3844843548353</v>
+        <v>583.2614020227606</v>
       </c>
       <c r="U3" t="n">
-        <v>587.3844843548353</v>
+        <v>583.2614020227606</v>
       </c>
       <c r="V3" t="n">
-        <v>587.3844843548353</v>
+        <v>583.2614020227606</v>
       </c>
       <c r="W3" t="n">
-        <v>587.3844843548353</v>
+        <v>393.8416170062757</v>
       </c>
       <c r="X3" t="n">
-        <v>587.3844843548353</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="Y3" t="n">
-        <v>439.0550691137153</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>14.12595803543247</v>
+        <v>27.03967056230184</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510284</v>
+        <v>42.9899398517073</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665727</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>25.36219250254178</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709669</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183017</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458395</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066255</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588563</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735306</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548346</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S5" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T5" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U5" t="n">
-        <v>587.3844843548345</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V5" t="n">
-        <v>456.7359354104562</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W5" t="n">
-        <v>308.4065201693364</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="X5" t="n">
-        <v>160.0771049282165</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439.0550691137147</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="C6" t="n">
-        <v>439.0550691137147</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="D6" t="n">
-        <v>439.0550691137147</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="E6" t="n">
-        <v>290.7256538725949</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="F6" t="n">
-        <v>144.1910958994798</v>
+        <v>73.44514521379145</v>
       </c>
       <c r="G6" t="n">
-        <v>34.75265173585764</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H6" t="n">
-        <v>34.75265173585764</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I6" t="n">
-        <v>34.75265173585764</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>12.36141687342361</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>111.9554248488221</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>247.5338027825024</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N6" t="n">
-        <v>392.911462660324</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O6" t="n">
-        <v>511.1831359408227</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P6" t="n">
-        <v>586.7735145200479</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548345</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S6" t="n">
-        <v>439.0550691137147</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="T6" t="n">
-        <v>439.0550691137147</v>
+        <v>409.3994882033913</v>
       </c>
       <c r="U6" t="n">
-        <v>439.0550691137147</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="V6" t="n">
-        <v>439.0550691137147</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="W6" t="n">
-        <v>439.0550691137147</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="X6" t="n">
-        <v>439.0550691137147</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="Y6" t="n">
-        <v>439.0550691137147</v>
+        <v>219.9797031869065</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>14.1259580354324</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510269</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665703</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>25.36219250254148</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V7" t="n">
-        <v>11.74768968709669</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400.3029543659128</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="C8" t="n">
-        <v>400.3029543659128</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="D8" t="n">
-        <v>393.841617006275</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="E8" t="n">
-        <v>393.841617006275</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="F8" t="n">
-        <v>393.841617006275</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="G8" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
         <v>15.00204697330559</v>
@@ -4819,7 +4819,7 @@
         <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
         <v>734.4611726020263</v>
@@ -4828,28 +4828,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S8" t="n">
-        <v>589.7227393823975</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="T8" t="n">
-        <v>589.7227393823975</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="U8" t="n">
-        <v>589.7227393823975</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="V8" t="n">
-        <v>589.7227393823975</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="W8" t="n">
-        <v>589.7227393823975</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="X8" t="n">
-        <v>589.7227393823975</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="Y8" t="n">
-        <v>589.7227393823975</v>
+        <v>322.4426321268585</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>619.6731565383475</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C9" t="n">
-        <v>619.6731565383475</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>619.6731565383475</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>460.4357015328919</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>313.9011435597769</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
         <v>15.00204697330559</v>
@@ -4907,28 +4907,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652795</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V9" t="n">
-        <v>750.1023486652795</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W9" t="n">
-        <v>619.6731565383475</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X9" t="n">
-        <v>619.6731565383475</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y9" t="n">
-        <v>619.6731565383475</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
         <v>15.00204697330559</v>
@@ -5001,13 +5001,13 @@
         <v>67.74542702828987</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>3215.315153136265</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1944.904841306683</v>
       </c>
     </row>
     <row r="12">
@@ -5111,16 +5111,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181849</v>
+        <v>286.6419270710073</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181849</v>
+        <v>286.6419270710073</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>286.6419270710073</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>286.6419270710073</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>139.751979573097</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>139.751979573097</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>139.751979573097</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181849</v>
+        <v>286.6419270710073</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1617.939223126803</v>
+        <v>1758.295537883726</v>
       </c>
       <c r="C14" t="n">
-        <v>1617.939223126803</v>
+        <v>1389.333020943314</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1389.333020943314</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052369</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="Y14" t="n">
-        <v>1617.939223126803</v>
+        <v>2144.895377947847</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.887005818185</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C16" t="n">
-        <v>920.887005818185</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5466,22 +5466,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T16" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U16" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V16" t="n">
-        <v>920.887005818185</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="W16" t="n">
-        <v>920.887005818185</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="X16" t="n">
-        <v>920.887005818185</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.887005818185</v>
+        <v>385.5649387724261</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796265</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392149</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="D17" t="n">
-        <v>194.5422403324644</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="E17" t="n">
-        <v>66.51211643218343</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218343</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>692.8974549201677</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>692.8974549201677</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218343</v>
@@ -5697,28 +5697,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T19" t="n">
-        <v>920.887005818185</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U19" t="n">
-        <v>920.887005818185</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V19" t="n">
-        <v>920.887005818185</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="W19" t="n">
-        <v>920.887005818185</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="X19" t="n">
-        <v>692.8974549201677</v>
+        <v>128.1868789351046</v>
       </c>
       <c r="Y19" t="n">
-        <v>692.8974549201677</v>
+        <v>128.1868789351046</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796252</v>
+        <v>1853.982617026599</v>
       </c>
       <c r="C20" t="n">
-        <v>821.1650657389509</v>
+        <v>1485.020100086187</v>
       </c>
       <c r="D20" t="n">
-        <v>821.1650657389509</v>
+        <v>1126.754401479436</v>
       </c>
       <c r="E20" t="n">
-        <v>821.1650657389509</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180638</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919559</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943747</v>
+        <v>2240.58245709072</v>
       </c>
     </row>
     <row r="21">
@@ -5828,10 +5828,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U22" t="n">
-        <v>920.8870058181849</v>
+        <v>440.098254770655</v>
       </c>
       <c r="V22" t="n">
-        <v>666.202517612298</v>
+        <v>185.4137665647681</v>
       </c>
       <c r="W22" t="n">
-        <v>376.7853475753374</v>
+        <v>185.4137665647681</v>
       </c>
       <c r="X22" t="n">
-        <v>148.7957966773201</v>
+        <v>185.4137665647681</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1232.150970528558</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C23" t="n">
-        <v>1232.150970528558</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D23" t="n">
-        <v>1232.150970528558</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912089</v>
@@ -5998,7 +5998,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6025,16 +6025,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943747</v>
+        <v>1636.597933493125</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2586.432485243718</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>2586.432485243718</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>2586.432485243718</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>2586.432485243718</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.432485243718</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T25" t="n">
-        <v>3103.839206178697</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U25" t="n">
-        <v>3103.839206178697</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V25" t="n">
-        <v>3103.839206178697</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W25" t="n">
-        <v>2814.422036141736</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X25" t="n">
-        <v>2586.432485243718</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y25" t="n">
-        <v>2586.432485243718</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1611.504630229388</v>
+        <v>1832.276849100054</v>
       </c>
       <c r="C26" t="n">
-        <v>1611.504630229388</v>
+        <v>1463.314332159642</v>
       </c>
       <c r="D26" t="n">
-        <v>1253.238931622637</v>
+        <v>1105.048633552892</v>
       </c>
       <c r="E26" t="n">
-        <v>867.4506790243931</v>
+        <v>719.2603809546476</v>
       </c>
       <c r="F26" t="n">
-        <v>456.4647742347856</v>
+        <v>719.2603809546476</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539436</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W26" t="n">
-        <v>2388.243802269321</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X26" t="n">
-        <v>2388.243802269321</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y26" t="n">
-        <v>1998.10447029351</v>
+        <v>2218.876689164176</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3325.60582160917</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C28" t="n">
-        <v>3156.669638681263</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D28" t="n">
-        <v>3006.552999268928</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E28" t="n">
-        <v>2858.639905686534</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F28" t="n">
-        <v>2858.639905686534</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G28" t="n">
-        <v>2714.773796186966</v>
+        <v>125.382677567399</v>
       </c>
       <c r="H28" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1754.744438482646</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C29" t="n">
-        <v>1385.781921542234</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F29" t="n">
         <v>523.5814653477182</v>
@@ -6460,55 +6460,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V29" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W29" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X29" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y29" t="n">
-        <v>2141.344278546768</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="30">
@@ -6536,19 +6536,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6560,34 +6560,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>631.7841389438281</v>
+        <v>649.4080837454732</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7841389438281</v>
+        <v>649.4080837454732</v>
       </c>
       <c r="D31" t="n">
-        <v>527.322087337517</v>
+        <v>499.2914443331374</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>351.3783507507443</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>204.4884032528339</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U31" t="n">
-        <v>631.7841389438281</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V31" t="n">
-        <v>631.7841389438281</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W31" t="n">
-        <v>631.7841389438281</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X31" t="n">
-        <v>631.7841389438281</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y31" t="n">
-        <v>631.7841389438281</v>
+        <v>831.0565485757129</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1590.416669135309</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C32" t="n">
-        <v>1590.416669135309</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D32" t="n">
-        <v>1232.150970528558</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3009.337405520486</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2325.505862906801</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>1952.040104645721</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>1590.416669135309</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2695.175226737382</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C34" t="n">
-        <v>2526.239043809475</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223168</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223168</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223168</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223168</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223168</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223168</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950635</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.81570227968</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609169</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609169</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609169</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609169</v>
+        <v>820.6387100046711</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.605821609169</v>
+        <v>820.6387100046711</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.605821609169</v>
+        <v>820.6387100046711</v>
       </c>
       <c r="W34" t="n">
-        <v>3325.605821609169</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="X34" t="n">
-        <v>3097.616270711152</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="Y34" t="n">
-        <v>2876.823691567622</v>
+        <v>531.2215399677106</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2005.586939522201</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C35" t="n">
-        <v>1636.624422581789</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
@@ -6943,10 +6943,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6964,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2741.012457539436</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W35" t="n">
-        <v>2741.012457539436</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X35" t="n">
-        <v>2741.012457539436</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y35" t="n">
-        <v>2392.186779586323</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.3679798527295</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C37" t="n">
-        <v>511.4317969248226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
         <v>66.5121164321834</v>
@@ -7122,25 +7122,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X37" t="n">
-        <v>729.2011216450112</v>
+        <v>918.7467562092049</v>
       </c>
       <c r="Y37" t="n">
-        <v>729.2011216450112</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1179.52858457759</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C38" t="n">
-        <v>810.5660676371781</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D38" t="n">
-        <v>452.3003690304276</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="E38" t="n">
-        <v>66.51211643218342</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7207,19 +7207,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3013.565057492288</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V38" t="n">
-        <v>2682.502170148718</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W38" t="n">
-        <v>2329.733514878603</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X38" t="n">
-        <v>1956.267756617523</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y38" t="n">
-        <v>1566.128424641711</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7259,7 +7259,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7271,34 +7271,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2471.230932223169</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C40" t="n">
-        <v>2471.230932223169</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.230932223169</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.230932223169</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.230932223169</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.605821609171</v>
+        <v>670.5220705923355</v>
       </c>
       <c r="V40" t="n">
-        <v>3070.921333403284</v>
+        <v>670.5220705923355</v>
       </c>
       <c r="W40" t="n">
-        <v>2781.504163366323</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="X40" t="n">
-        <v>2553.514612468306</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="Y40" t="n">
-        <v>2471.230932223169</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038042</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.66971909763</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.40402049088</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926356</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F41" t="n">
-        <v>298.6298631030281</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>298.6298631030281</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339055</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102164</v>
+        <v>1914.669427940026</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.4780323548191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C43" t="n">
-        <v>364.5418494269122</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D43" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>831.0565485757124</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U43" t="n">
-        <v>541.953681701356</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V43" t="n">
-        <v>541.953681701356</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W43" t="n">
-        <v>541.953681701356</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X43" t="n">
-        <v>541.953681701356</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y43" t="n">
-        <v>541.953681701356</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1127.748203495403</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C44" t="n">
-        <v>758.7856865549918</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>400.5199879482413</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>66.51211643218342</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410102</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066531</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796417</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X44" t="n">
-        <v>1904.487375535337</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y44" t="n">
-        <v>1514.348043559525</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>541.6393785387522</v>
+        <v>518.4459618444151</v>
       </c>
       <c r="C46" t="n">
-        <v>541.6393785387522</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D46" t="n">
-        <v>541.6393785387522</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E46" t="n">
-        <v>393.7262849563591</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>246.8363374584488</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>79.13350083316772</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>79.13350083316772</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372933</v>
@@ -7815,43 +7815,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U46" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V46" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W46" t="n">
-        <v>541.6393785387522</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X46" t="n">
-        <v>541.6393785387522</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y46" t="n">
-        <v>541.6393785387522</v>
+        <v>700.0944266746549</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747717</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>235.9308283160729</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>189.5105044445881</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059416</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753913</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327425</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328709</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880633</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>202.3948476287042</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.3918175673448</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.68706256115851</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22637,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>5.12309666578264</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354542</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>22.7749124282733</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345807</v>
+        <v>57.03060314331797</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2242511465658</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.7251189095246</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8689183739243</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459943</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.2473980371573</v>
       </c>
       <c r="Y3" t="n">
-        <v>58.83657468859553</v>
+        <v>18.15710861098418</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818779</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>21.72895798776025</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>12.56652187753461</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.18139529270546</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>166.3687070976601</v>
       </c>
     </row>
     <row r="5">
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>131.1116955327425</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328794</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880639</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>214.0843260727917</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1809648714442</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V5" t="n">
-        <v>198.4101950152004</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W5" t="n">
-        <v>202.3948476287044</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X5" t="n">
-        <v>222.8849795897604</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>239.391817567345</v>
+        <v>221.0654014799591</v>
       </c>
     </row>
     <row r="6">
@@ -22871,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>10.79895936669232</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>27.89800909405628</v>
+        <v>78.30512210769433</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354543</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345809</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
-        <v>4.37813005785722</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>7.884010625681299</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818782</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K7" t="n">
-        <v>21.7289579877603</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>12.56652187753493</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.1813952927055</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>348.2863176346416</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637382</v>
+        <v>296.2572410943606</v>
       </c>
       <c r="H8" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
         <v>125.4713171199747</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23077,7 +23077,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23108,19 +23108,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
         <v>15.37922103265839</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>102.66995624437</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W9" t="n">
-        <v>122.570082955257</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23202,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.95836326784826</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>277.2566436803264</v>
+        <v>243.931261253252</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.772586778758495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>23.84495590033369</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>184.7432103887279</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.4732379112239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.772586778758381</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>228.2407445612869</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>255.1805474109837</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>198.0889477142666</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>118.7739653040453</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>131.1298217579574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>265.6735555317401</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>191.6652090435722</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.1238099094095</v>
+        <v>100.872019720836</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>307.2767095024436</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>324.945361173883</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>51.97627076868473</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24417,7 +24417,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>24.86859442887732</v>
+        <v>100.8856379364603</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>23.59835985445525</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>86.47315939045731</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>337.9481021588941</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>289.9110058020852</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>45.19804192796438</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>29.42928430658424</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24894,7 +24894,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>304.0065384866158</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>28.23073750074525</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>94.15744254776865</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>120.3031364207906</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>379.9269443672295</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>40.90051748247174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>131.4871698075784</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>223.590808276147</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>82.39369247777648</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>51.26257727136462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25605,19 +25605,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>38.35055233202186</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.1238099094096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>65.86613238812191</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>64.81119518318425</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>171.4410873288658</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>130.6519436655634</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>66.84743663721008</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>51.26257727136448</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>14.88174980530002</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>83.85724985286363</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402256.5418769756</v>
+        <v>442548.1487976215</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402256.5418769754</v>
+        <v>443310.2125280239</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139242.6491112606</v>
+        <v>152329.6422561544</v>
       </c>
       <c r="C2" t="n">
-        <v>139242.6491112606</v>
+        <v>152522.8415117493</v>
       </c>
       <c r="D2" t="n">
         <v>149975.680096304</v>
       </c>
       <c r="E2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="F2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="G2" t="n">
         <v>296136.8796318747</v>
@@ -26337,25 +26337,25 @@
         <v>296136.8796318744</v>
       </c>
       <c r="J2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="K2" t="n">
         <v>296136.8796318744</v>
       </c>
-      <c r="K2" t="n">
-        <v>296136.8796318746</v>
-      </c>
       <c r="L2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="M2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="N2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="O2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="P2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318745</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751307</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074452</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336676</v>
+        <v>627134.6436336677</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613411</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904868</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678776</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.192147960263</v>
+        <v>2622.5379534698</v>
       </c>
       <c r="C4" t="n">
-        <v>107.1921479602628</v>
+        <v>2826.4705010423</v>
       </c>
       <c r="D4" t="n">
         <v>137.800118072334</v>
@@ -26432,7 +26432,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061231</v>
@@ -26444,19 +26444,19 @@
         <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
+        <v>584.6469890061232</v>
+      </c>
+      <c r="O4" t="n">
         <v>584.6469890061231</v>
-      </c>
-      <c r="O4" t="n">
-        <v>584.646989006123</v>
       </c>
       <c r="P4" t="n">
         <v>584.6469890061231</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.11977902091</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.1197790209</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="D5" t="n">
         <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26487,19 +26487,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="K5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139327</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
@@ -26508,7 +26508,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-457239.0977908512</v>
+        <v>-510698.8849732621</v>
       </c>
       <c r="C6" t="n">
-        <v>85416.33718427963</v>
+        <v>80658.0175475837</v>
       </c>
       <c r="D6" t="n">
-        <v>49048.27572587362</v>
+        <v>80658.01754758344</v>
       </c>
       <c r="E6" t="n">
-        <v>-405888.7515521926</v>
+        <v>-409962.7469303622</v>
       </c>
       <c r="F6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="G6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="H6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="I6" t="n">
-        <v>221245.8920814749</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="J6" t="n">
-        <v>182824.4855753409</v>
+        <v>168106.9519747609</v>
       </c>
       <c r="K6" t="n">
-        <v>221245.8920814753</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="L6" t="n">
-        <v>210950.2853324263</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="M6" t="n">
-        <v>60789.45021359767</v>
+        <v>56715.45483542817</v>
       </c>
       <c r="N6" t="n">
-        <v>221245.8920814749</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="O6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="P6" t="n">
-        <v>221245.8920814748</v>
+        <v>217171.8967033055</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572211</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129046</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887088</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26807,31 +26807,31 @@
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022923</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572211</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568375</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>541.3067596803937</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887088</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.875868235973</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887087</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761112</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359729</v>
+        <v>643.875868235973</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887088</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761124</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.875868235973</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0586004549034</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877945</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>79.3641940376634</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593576</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154185</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871685</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270568</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>367.3212256695512</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961055</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656777</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744497</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253258</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611127</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339636</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645458</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>139.0785066724536</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358324</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206855</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720421</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914129</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>210.3283251711235</v>
+        <v>225.2762668628876</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050589</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727198</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297038</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055018</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179395</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864959</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793586</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120832</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421835</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199994</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>141.308030123369</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863685</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843224</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674038</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910843</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741627</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113013</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825131</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903399</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877944</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766335</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154184</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871684</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270567</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>367.321225669551</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961053</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656776</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744496</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611125</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339632</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645457</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>138.4613654251943</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358323</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206853</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>278.1878331720419</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914128</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711234</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.5989153332807</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050586</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727197</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297035</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055015</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179391</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864955</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793585</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120829</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421834</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674034</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910842</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825128</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32241,7 +32241,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M17" t="n">
         <v>769.2673490574995</v>
@@ -32475,7 +32475,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L20" t="n">
         <v>691.3565293623194</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33918,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043796</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718129</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997841</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729602</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744187</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040821</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.237067698094591</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>100.6000080559582</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>136.9478564986671</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887088</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469685</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>76.35391775679327</v>
+        <v>91.30185944855734</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945219</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394313</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>13.62248565813579</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043784</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718112</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729601</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744186</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040804</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6199264508352701</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>100.6000080559581</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>136.947856498667</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8461210887086</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469684</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679318</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6171412472592124</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945162</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394228</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>13.6224856581357</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -36123,7 +36123,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K31" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L31" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M31" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N31" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O31" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P31" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K34" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M34" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O34" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
